--- a/differences_6_0.85.xlsx
+++ b/differences_6_0.85.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.144</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.163</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.134</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.144</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03900000000000003</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05100000000000005</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.03899999999999992</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.127</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05400000000000005</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09199999999999997</v>
+        <v>0.06100000000000005</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.09599999999999997</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.07199999999999995</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.118</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04400000000000004</v>
+        <v>-0.08499999999999996</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08000000000000002</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.154</v>
+        <v>0.04200000000000004</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.03400000000000003</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.05199999999999994</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05700000000000005</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.103</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1860000000000001</v>
+        <v>0.03500000000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.02399999999999991</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1110000000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.09800000000000003</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0.04899999999999999</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1119,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.07699999999999996</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.07499999999999996</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0.03100000000000003</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.126</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-0.03299999999999997</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.115</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02900000000000003</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.102</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-0.02700000000000002</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.06299999999999994</v>
+        <v>0.121</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.108</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04800000000000004</v>
+        <v>-0.05799999999999994</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08500000000000002</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-0.03999999999999992</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.02900000000000003</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07800000000000001</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1447,16 +1447,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.112</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.08900000000000002</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.11</v>
+        <v>0.05900000000000005</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.11</v>
+        <v>0.07600000000000007</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.03400000000000003</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.09699999999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07200000000000001</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1619,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06299999999999994</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05300000000000005</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03333333333333366</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09299999999999997</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-0.04600000000000004</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05399999999999999</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05399999999999994</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-0.07400000000000007</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07399999999999995</v>
+        <v>-0.02300000000000002</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1199999999999999</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07199999999999995</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1916,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.04199999999999998</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07299999999999995</v>
+        <v>-0.04300000000000004</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.05599999999999999</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.07799999999999996</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.08000000000000002</v>
+        <v>-0.02599999999999997</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.08400000000000007</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.09800000000000003</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2079,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04299999999999993</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.06299999999999994</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07400000000000007</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2149,10 +2149,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-0.113</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08100000000000002</v>
+        <v>-0.04499999999999998</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07400000000000007</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2235,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.03899999999999992</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.09500000000000003</v>
+        <v>0.09599999999999997</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2263,19 +2263,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04099999999999993</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05300000000000005</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.06099999999999994</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-0.09299999999999997</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03399999999999992</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.08299999999999996</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2364,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.07200000000000006</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.09700000000000003</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04899999999999993</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E44" t="n">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06400000000000006</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2496,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-0.07599999999999996</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.08199999999999996</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.003000000000000003</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2539,16 +2539,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07399999999999995</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.06099999999999994</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-0.03299999999999997</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2591,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09099999999999997</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.09199999999999997</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.02299999999999996</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="C48" t="n">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.09799999999999998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.04900000000000004</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.219</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.108</v>
+        <v>0.144</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.1850000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.06100000000000005</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.05399999999999999</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.07700000000000007</v>
+        <v>0.05599999999999994</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.04199999999999998</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.09500000000000008</v>
+        <v>0.144</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04400000000000004</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.08500000000000002</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.05400000000000005</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.04799999999999999</v>
+        <v>0.09099999999999997</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04199999999999993</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.02999999999999997</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2999,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>-0.05399999999999999</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3057,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09599999999999997</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.08600000000000002</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06899999999999995</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>-0.07099999999999995</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>-0.02400000000000002</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.07900000000000001</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.03399999999999997</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.09999999999999998</v>
+        <v>0.101</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>-0.01700000000000002</v>
       </c>
       <c r="E60" t="n">
-        <v>0.06400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07199999999999995</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.05699999999999994</v>
+        <v>-0.05300000000000005</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.198</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.05200000000000005</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.08300000000000002</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01700000000000002</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.08900000000000008</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.07499999999999996</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.153</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06499999999999995</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.06699999999999995</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.07900000000000001</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3517,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.07400000000000007</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.02100000000000002</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05400000000000005</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02900000000000003</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3603,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02999999999999992</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3643,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>-0.04199999999999998</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -3704,19 +3704,19 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.07899999999999996</v>
       </c>
       <c r="I71" t="n">
-        <v>0.05799999999999994</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.137</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.07300000000000001</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.05899999999999994</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -3741,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06599999999999995</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08299999999999996</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>0.147</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.04100000000000004</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -3885,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.06800000000000006</v>
+        <v>0.07899999999999996</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.04199999999999993</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -3925,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07600000000000007</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.002000000000000002</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02400000000000002</v>
+        <v>0.125</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.05999999999999994</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -4020,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>0.09499999999999997</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09099999999999997</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.06100000000000005</v>
+        <v>0.105</v>
       </c>
       <c r="H80" t="n">
-        <v>0.01199999999999996</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.1889999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>-0.02700000000000002</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04599999999999993</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.09800000000000003</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -4244,16 +4244,16 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01200000000000001</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>-0.08199999999999996</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.05199999999999994</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4345,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.08900000000000008</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.09300000000000003</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -4391,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06400000000000006</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>0.127</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07899999999999996</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -4443,10 +4443,10 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.07399999999999995</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.157</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.02100000000000002</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01900000000000002</v>
+        <v>0.144</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4560,10 +4560,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="C90" t="n">
-        <v>0.04200000000000004</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.137</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.009999999999999953</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.09399999999999997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0.06700000000000006</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>0.04900000000000004</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.05799999999999994</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.05300000000000005</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -4747,19 +4747,19 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.06899999999999995</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>0.03699999999999998</v>
       </c>
       <c r="E94" t="n">
-        <v>0.05400000000000005</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.07199999999999995</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4799,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04899999999999993</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4845,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.06600000000000006</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.1020000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4955,10 +4955,10 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="L98" t="n">
-        <v>0.03900000000000003</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -4980,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02899999999999997</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.03899999999999992</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4992,13 +4992,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.06699999999999995</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.01700000000000002</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -5075,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-0.06899999999999995</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
